--- a/ASTAR_H2.xlsx
+++ b/ASTAR_H2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheUS\OneDrive\Documents\GitHub\ProgrammingAssignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ProgrammingAssignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5764486-6D01-41A1-BC8B-17E32322FBFE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27018ED2-90DF-450C-9842-C4143C9DB92B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="3195" windowWidth="11130" windowHeight="11385" xr2:uid="{463F590B-854B-4905-A697-0D09A82B57BC}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="14286" windowHeight="9108" xr2:uid="{463F590B-854B-4905-A697-0D09A82B57BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>Heuristic Time</t>
   </si>
@@ -61,6 +63,24 @@
   </si>
   <si>
     <t>M = 50</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>M=10</t>
+  </si>
+  <si>
+    <t>M=20</t>
+  </si>
+  <si>
+    <t>M=30</t>
+  </si>
+  <si>
+    <t>M=40</t>
+  </si>
+  <si>
+    <t>M=50</t>
   </si>
 </sst>
 </file>
@@ -412,13 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D8D88F-53D6-47FB-B6E8-E3B1F963B65E}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +456,26 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -451,8 +491,31 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(A3:A12)</f>
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(B3:B12)</f>
+        <v>0.90050000000000008</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(C3:C12)</f>
+        <v>5.7</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(D3:D12)</f>
+        <v>7.2</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(E3:E12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1.022</v>
       </c>
@@ -468,8 +531,31 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(A14:A23)</f>
+        <v>122.16510000000002</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(B14:B23)</f>
+        <v>1325.4189999999999</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(C14:C23)</f>
+        <v>1041.2</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(D14:D23)</f>
+        <v>19.5</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(E14:E23)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0.998</v>
       </c>
@@ -485,8 +571,31 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(A25:A34)</f>
+        <v>91.874400000000094</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:L4" si="0">AVERAGE(B25:B34)</f>
+        <v>382.70359999999999</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>748.7</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0.998</v>
       </c>
@@ -502,8 +611,31 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(A36:A45)</f>
+        <v>224.03400000000005</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:L5" si="1">AVERAGE(B36:B45)</f>
+        <v>1690.6702</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>1831.4</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1.9950000000000001</v>
       </c>
@@ -519,8 +651,31 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE(A47:A56)</f>
+        <v>179.48610000000002</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:L6" si="2">AVERAGE(B47:B56)</f>
+        <v>1459.2182</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>1409.8</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>48.4</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>0.998</v>
       </c>
@@ -537,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>0.998</v>
       </c>
@@ -554,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>0</v>
       </c>
@@ -571,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>0</v>
       </c>
@@ -588,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>0</v>
       </c>
@@ -605,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>0.997</v>
       </c>
@@ -622,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -639,7 +794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>29.88</v>
       </c>
@@ -656,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>0</v>
       </c>
@@ -673,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>0.997</v>
       </c>
@@ -690,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>5.0139999999999896</v>
       </c>
@@ -707,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>1179.7760000000001</v>
       </c>
@@ -724,7 +879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>0</v>
       </c>
@@ -741,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>2.992</v>
       </c>
@@ -758,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>0.997</v>
       </c>
@@ -775,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>0.997</v>
       </c>
@@ -792,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>0.998</v>
       </c>
@@ -809,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -826,7 +981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>3.0230000000000001</v>
       </c>
@@ -843,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>315.78500000000003</v>
       </c>
@@ -860,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>0.997</v>
       </c>
@@ -877,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>520.11800000000096</v>
       </c>
@@ -894,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>33.940999999999903</v>
       </c>
@@ -911,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>3.0169999999999999</v>
       </c>
@@ -928,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>0</v>
       </c>
@@ -945,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>0</v>
       </c>
@@ -962,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>40.864999999999903</v>
       </c>
@@ -979,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>0.998</v>
       </c>
@@ -996,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1013,7 +1168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>41.8539999999999</v>
       </c>
@@ -1030,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>69.774999999999906</v>
       </c>
@@ -1047,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>0.998</v>
       </c>
@@ -1064,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>0.997</v>
       </c>
@@ -1081,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>542.04100000000096</v>
       </c>
@@ -1098,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>311.88200000000001</v>
       </c>
@@ -1115,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>1.9950000000000001</v>
       </c>
@@ -1132,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>31.0259999999999</v>
       </c>
@@ -1149,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>1232.7190000000001</v>
       </c>
@@ -1166,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>7.0529999999999999</v>
       </c>
@@ -1183,46 +1338,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>1.022</v>
+        <v>8.0060000000000002</v>
       </c>
       <c r="B47">
-        <v>1.022</v>
+        <v>7.008</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>0.998</v>
+        <v>2.0179999999999998</v>
       </c>
       <c r="B48">
-        <v>0.998</v>
+        <v>2.0179999999999998</v>
       </c>
       <c r="C48">
         <v>8</v>
@@ -1234,887 +1389,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>0.998</v>
+        <v>5.0119999999999996</v>
       </c>
       <c r="B49">
-        <v>0.998</v>
+        <v>6.0129999999999999</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>1.9950000000000001</v>
+        <v>1306.9570000000001</v>
       </c>
       <c r="B50">
-        <v>1.9950000000000001</v>
+        <v>13510.599</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>9988</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
-        <v>0.998</v>
+        <v>63.927999999999997</v>
       </c>
       <c r="B51">
-        <v>0.998</v>
+        <v>119.679</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>562</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
-        <v>0.998</v>
+        <v>70.94</v>
       </c>
       <c r="B52">
-        <v>0.998</v>
+        <v>127.658</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>599</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
-        <v>0</v>
+        <v>4.9870000000000001</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>4.9870000000000001</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
-        <v>0</v>
+        <v>149.43600000000001</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>367.33300000000003</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>1280</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
-        <v>0</v>
+        <v>12.048999999999999</v>
       </c>
       <c r="B55">
-        <v>0.999</v>
+        <v>20.029</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
-        <v>0.997</v>
+        <v>171.52799999999999</v>
       </c>
       <c r="B56">
-        <v>0.997</v>
+        <v>426.858</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>1419</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>29.88</v>
-      </c>
-      <c r="B58">
-        <v>56.082000000000001</v>
-      </c>
-      <c r="C58">
-        <v>307</v>
-      </c>
-      <c r="D58">
-        <v>42</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>0</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>0.997</v>
-      </c>
-      <c r="B60">
-        <v>0.997</v>
-      </c>
-      <c r="C60">
-        <v>6</v>
-      </c>
-      <c r="D60">
-        <v>8</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>5.0139999999999896</v>
-      </c>
-      <c r="B61">
-        <v>6.0090000000000003</v>
-      </c>
-      <c r="C61">
-        <v>42</v>
-      </c>
-      <c r="D61">
-        <v>12</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>1179.7760000000001</v>
-      </c>
-      <c r="B62">
-        <v>13184.120999999999</v>
-      </c>
-      <c r="C62">
-        <v>10001</v>
-      </c>
-      <c r="D62">
-        <v>87</v>
-      </c>
-      <c r="E62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>0</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>4</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2.992</v>
-      </c>
-      <c r="B64">
-        <v>2.992</v>
-      </c>
-      <c r="C64">
-        <v>20</v>
-      </c>
-      <c r="D64">
-        <v>12</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>0.997</v>
-      </c>
-      <c r="B65">
-        <v>1.994</v>
-      </c>
-      <c r="C65">
-        <v>12</v>
-      </c>
-      <c r="D65">
-        <v>8</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>0.997</v>
-      </c>
-      <c r="B66">
-        <v>0.997</v>
-      </c>
-      <c r="C66">
-        <v>6</v>
-      </c>
-      <c r="D66">
-        <v>8</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>0.998</v>
-      </c>
-      <c r="B67">
-        <v>0.998</v>
-      </c>
-      <c r="C67">
-        <v>12</v>
-      </c>
-      <c r="D67">
-        <v>8</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>3.0230000000000001</v>
-      </c>
-      <c r="B69">
-        <v>3.0230000000000001</v>
-      </c>
-      <c r="C69">
-        <v>15</v>
-      </c>
-      <c r="D69">
-        <v>14</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>315.78500000000003</v>
-      </c>
-      <c r="B70">
-        <v>965.28599999999994</v>
-      </c>
-      <c r="C70">
-        <v>2398</v>
-      </c>
-      <c r="D70">
-        <v>84</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>0.997</v>
-      </c>
-      <c r="B71">
-        <v>0.997</v>
-      </c>
-      <c r="C71">
-        <v>6</v>
-      </c>
-      <c r="D71">
-        <v>8</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>520.11800000000096</v>
-      </c>
-      <c r="B72">
-        <v>2733.98</v>
-      </c>
-      <c r="C72">
-        <v>4371</v>
-      </c>
-      <c r="D72">
-        <v>128</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>33.940999999999903</v>
-      </c>
-      <c r="B73">
-        <v>56.921999999999997</v>
-      </c>
-      <c r="C73">
-        <v>311</v>
-      </c>
-      <c r="D73">
-        <v>56</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>3.0169999999999999</v>
-      </c>
-      <c r="B74">
-        <v>3.0169999999999999</v>
-      </c>
-      <c r="C74">
-        <v>24</v>
-      </c>
-      <c r="D74">
-        <v>14</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>0</v>
-      </c>
-      <c r="B75">
-        <v>2.9910000000000001</v>
-      </c>
-      <c r="C75">
-        <v>20</v>
-      </c>
-      <c r="D75">
-        <v>18</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>0</v>
-      </c>
-      <c r="B76">
-        <v>0.996</v>
-      </c>
-      <c r="C76">
-        <v>10</v>
-      </c>
-      <c r="D76">
-        <v>12</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>40.864999999999903</v>
-      </c>
-      <c r="B77">
-        <v>58.826000000000001</v>
-      </c>
-      <c r="C77">
-        <v>324</v>
-      </c>
-      <c r="D77">
-        <v>36</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>0.998</v>
-      </c>
-      <c r="B78">
-        <v>0.998</v>
-      </c>
-      <c r="C78">
-        <v>8</v>
-      </c>
-      <c r="D78">
-        <v>10</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>41.8539999999999</v>
-      </c>
-      <c r="B80">
-        <v>73.832999999999998</v>
-      </c>
-      <c r="C80">
-        <v>385</v>
-      </c>
-      <c r="D80">
-        <v>44</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>69.774999999999906</v>
-      </c>
-      <c r="B81">
-        <v>122.7</v>
-      </c>
-      <c r="C81">
-        <v>571</v>
-      </c>
-      <c r="D81">
-        <v>52</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>0.998</v>
-      </c>
-      <c r="B82">
-        <v>0.998</v>
-      </c>
-      <c r="C82">
-        <v>6</v>
-      </c>
-      <c r="D82">
-        <v>8</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>0.997</v>
-      </c>
-      <c r="B83">
-        <v>0.997</v>
-      </c>
-      <c r="C83">
-        <v>8</v>
-      </c>
-      <c r="D83">
-        <v>10</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>542.04100000000096</v>
-      </c>
-      <c r="B84">
-        <v>2882.9940000000001</v>
-      </c>
-      <c r="C84">
-        <v>4500</v>
-      </c>
-      <c r="D84">
-        <v>132</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>311.88200000000001</v>
-      </c>
-      <c r="B85">
-        <v>1156.538</v>
-      </c>
-      <c r="C85">
-        <v>2681</v>
-      </c>
-      <c r="D85">
-        <v>146</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1.9950000000000001</v>
-      </c>
-      <c r="B86">
-        <v>1.9950000000000001</v>
-      </c>
-      <c r="C86">
-        <v>13</v>
-      </c>
-      <c r="D86">
-        <v>12</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>31.0259999999999</v>
-      </c>
-      <c r="B87">
-        <v>51.886000000000003</v>
-      </c>
-      <c r="C87">
-        <v>289</v>
-      </c>
-      <c r="D87">
-        <v>42</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>1232.7190000000001</v>
-      </c>
-      <c r="B88">
-        <v>12603.755999999999</v>
-      </c>
-      <c r="C88">
-        <v>9790</v>
-      </c>
-      <c r="D88">
-        <v>100</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>7.0529999999999999</v>
-      </c>
-      <c r="B89">
-        <v>11.005000000000001</v>
-      </c>
-      <c r="C89">
-        <v>71</v>
-      </c>
-      <c r="D89">
-        <v>24</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>8.0060000000000002</v>
-      </c>
-      <c r="B91">
-        <v>7.008</v>
-      </c>
-      <c r="C91">
-        <v>49</v>
-      </c>
-      <c r="D91">
-        <v>20</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>2.0179999999999998</v>
-      </c>
-      <c r="B92">
-        <v>2.0179999999999998</v>
-      </c>
-      <c r="C92">
-        <v>8</v>
-      </c>
-      <c r="D92">
-        <v>10</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>5.0119999999999996</v>
-      </c>
-      <c r="B93">
-        <v>6.0129999999999999</v>
-      </c>
-      <c r="C93">
-        <v>39</v>
-      </c>
-      <c r="D93">
-        <v>18</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>1306.9570000000001</v>
-      </c>
-      <c r="B94">
-        <v>13510.599</v>
-      </c>
-      <c r="C94">
-        <v>9988</v>
-      </c>
-      <c r="D94">
-        <v>96</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>63.927999999999997</v>
-      </c>
-      <c r="B95">
-        <v>119.679</v>
-      </c>
-      <c r="C95">
-        <v>562</v>
-      </c>
-      <c r="D95">
-        <v>84</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>70.94</v>
-      </c>
-      <c r="B96">
-        <v>127.658</v>
-      </c>
-      <c r="C96">
-        <v>599</v>
-      </c>
-      <c r="D96">
-        <v>40</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>4.9870000000000001</v>
-      </c>
-      <c r="B97">
-        <v>4.9870000000000001</v>
-      </c>
-      <c r="C97">
-        <v>26</v>
-      </c>
-      <c r="D97">
-        <v>20</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>149.43600000000001</v>
-      </c>
-      <c r="B98">
-        <v>367.33300000000003</v>
-      </c>
-      <c r="C98">
-        <v>1280</v>
-      </c>
-      <c r="D98">
-        <v>76</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>12.048999999999999</v>
-      </c>
-      <c r="B99">
-        <v>20.029</v>
-      </c>
-      <c r="C99">
-        <v>128</v>
-      </c>
-      <c r="D99">
-        <v>30</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>171.52799999999999</v>
-      </c>
-      <c r="B100">
-        <v>426.858</v>
-      </c>
-      <c r="C100">
-        <v>1419</v>
-      </c>
-      <c r="D100">
-        <v>90</v>
-      </c>
-      <c r="E100">
         <v>0</v>
       </c>
     </row>
